--- a/docs/odh/obf-EncounterOrEpisode.xlsx
+++ b/docs/odh/obf-EncounterOrEpisode.xlsx
@@ -428,7 +428,7 @@
     <t>DomainResource.extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>

--- a/docs/odh/obf-EncounterOrEpisode.xlsx
+++ b/docs/odh/obf-EncounterOrEpisode.xlsx
@@ -330,7 +330,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>timeperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-TimePeriod-extension}
 </t>
   </si>
   <si>
@@ -445,7 +445,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Type-extension}
 </t>
   </si>
   <si>
